--- a/branches/revert-18-main/StructureDefinition-omrs-location.xlsx
+++ b/branches/revert-18-main/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T18:00:11+00:00</t>
+    <t>2022-07-25T18:06:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
